--- a/06 practice-myself/研究笔记/0101 研究过程问题解决及经验反思.xlsx
+++ b/06 practice-myself/研究笔记/0101 研究过程问题解决及经验反思.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C27FBB-8484-43FD-847E-4411D45A6352}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694FD21-5A16-424C-B88D-1D34272F89B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>solve ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 一个月最多问一次王博问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曲波变换原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,22 @@
   </si>
   <si>
     <t>轮廓波工具箱代码报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯金字塔理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 高斯金字塔主要是通过博客了解 而且博客是通过尺度不变特征转换转变而来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个月最多问一次王博问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 解决问题思维导图大问题下先写问题 再想着怎么解决 2 买本笔记本记录问题解决流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +513,7 @@
   <dimension ref="A1:AM377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -509,7 +521,7 @@
     <col min="17" max="17" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -556,7 +568,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -601,7 +613,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="57.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -646,7 +658,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -691,9 +703,9 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -734,9 +746,9 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -748,7 +760,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -779,9 +791,9 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="68.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -793,7 +805,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="6"/>
       <c r="K7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -824,8 +836,10 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -834,8 +848,10 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -865,24 +881,26 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+    <row r="9" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -906,7 +924,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -947,7 +965,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -988,7 +1006,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1029,7 +1047,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1070,7 +1088,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1111,7 +1129,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1152,7 +1170,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1193,7 +1211,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1234,7 +1252,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1275,7 +1293,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1316,7 +1334,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1357,7 +1375,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1398,7 +1416,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1439,7 +1457,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1480,7 +1498,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1521,7 +1539,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1562,7 +1580,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1603,7 +1621,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1644,7 +1662,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1685,7 +1703,7 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1726,7 +1744,7 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1767,7 +1785,7 @@
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1808,7 +1826,7 @@
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1849,7 +1867,7 @@
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1890,7 +1908,7 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1931,7 +1949,7 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
     </row>
-    <row r="35" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1972,7 +1990,7 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2013,7 +2031,7 @@
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
     </row>
-    <row r="37" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2054,7 +2072,7 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
     </row>
-    <row r="38" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2095,7 +2113,7 @@
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2136,7 +2154,7 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2177,7 +2195,7 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2218,7 +2236,7 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2259,7 +2277,7 @@
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
     </row>
-    <row r="43" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2300,7 +2318,7 @@
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2341,7 +2359,7 @@
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
     </row>
-    <row r="45" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2382,7 +2400,7 @@
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
     </row>
-    <row r="46" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2423,7 +2441,7 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
     </row>
-    <row r="47" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2464,7 +2482,7 @@
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2505,7 +2523,7 @@
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2546,7 +2564,7 @@
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
     </row>
-    <row r="50" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2587,7 +2605,7 @@
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
     </row>
-    <row r="51" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2628,7 +2646,7 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2669,7 +2687,7 @@
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2710,7 +2728,7 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2751,7 +2769,7 @@
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2792,7 +2810,7 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
     </row>
-    <row r="56" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2833,7 +2851,7 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2874,7 +2892,7 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2915,7 +2933,7 @@
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
     </row>
-    <row r="59" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2956,7 +2974,7 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2997,7 +3015,7 @@
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
     </row>
-    <row r="61" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3038,7 +3056,7 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3079,7 +3097,7 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="63" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3120,7 +3138,7 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3161,7 +3179,7 @@
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
-    <row r="65" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3202,7 +3220,7 @@
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
     </row>
-    <row r="66" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3243,7 +3261,7 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
-    <row r="67" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3284,7 +3302,7 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
-    <row r="68" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3325,7 +3343,7 @@
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
     </row>
-    <row r="69" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3366,7 +3384,7 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
     </row>
-    <row r="70" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3407,7 +3425,7 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3448,7 +3466,7 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3489,7 +3507,7 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3530,7 +3548,7 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
     </row>
-    <row r="74" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3571,7 +3589,7 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
-    <row r="75" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3612,7 +3630,7 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
     </row>
-    <row r="76" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3653,7 +3671,7 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
     </row>
-    <row r="77" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3694,7 +3712,7 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
     </row>
-    <row r="78" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3735,7 +3753,7 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
     </row>
-    <row r="79" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3776,7 +3794,7 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
     </row>
-    <row r="80" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3817,7 +3835,7 @@
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
     </row>
-    <row r="81" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3858,7 +3876,7 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
     </row>
-    <row r="82" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3899,7 +3917,7 @@
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
     </row>
-    <row r="83" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3940,7 +3958,7 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3981,7 +3999,7 @@
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
     </row>
-    <row r="85" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4022,7 +4040,7 @@
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
     </row>
-    <row r="86" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4063,7 +4081,7 @@
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
     </row>
-    <row r="87" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4104,7 +4122,7 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
     </row>
-    <row r="88" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4145,7 +4163,7 @@
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
     </row>
-    <row r="89" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4186,7 +4204,7 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
     </row>
-    <row r="90" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4227,7 +4245,7 @@
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
     </row>
-    <row r="91" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4268,7 +4286,7 @@
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
     </row>
-    <row r="92" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4309,7 +4327,7 @@
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
     </row>
-    <row r="93" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -4350,7 +4368,7 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
     </row>
-    <row r="94" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4391,7 +4409,7 @@
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
     </row>
-    <row r="95" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4432,7 +4450,7 @@
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
     </row>
-    <row r="96" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4473,7 +4491,7 @@
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
     </row>
-    <row r="97" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4514,7 +4532,7 @@
       <c r="AL97" s="1"/>
       <c r="AM97" s="1"/>
     </row>
-    <row r="98" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4555,7 +4573,7 @@
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
     </row>
-    <row r="99" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4596,7 +4614,7 @@
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
     </row>
-    <row r="100" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4637,7 +4655,7 @@
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
-    <row r="101" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4678,7 +4696,7 @@
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
     </row>
-    <row r="102" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4719,7 +4737,7 @@
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
     </row>
-    <row r="103" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4760,7 +4778,7 @@
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
     </row>
-    <row r="104" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4801,7 +4819,7 @@
       <c r="AL104" s="1"/>
       <c r="AM104" s="1"/>
     </row>
-    <row r="105" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4842,7 +4860,7 @@
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
     </row>
-    <row r="106" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4883,7 +4901,7 @@
       <c r="AL106" s="1"/>
       <c r="AM106" s="1"/>
     </row>
-    <row r="107" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4924,7 +4942,7 @@
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
     </row>
-    <row r="108" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4965,7 +4983,7 @@
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
     </row>
-    <row r="109" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -5006,7 +5024,7 @@
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
     </row>
-    <row r="110" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5047,7 +5065,7 @@
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
     </row>
-    <row r="111" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5088,7 +5106,7 @@
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
     </row>
-    <row r="112" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -5129,7 +5147,7 @@
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
     </row>
-    <row r="113" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5170,7 +5188,7 @@
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
     </row>
-    <row r="114" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5211,7 +5229,7 @@
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
     </row>
-    <row r="115" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5252,7 +5270,7 @@
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
     </row>
-    <row r="116" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5293,7 +5311,7 @@
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
     </row>
-    <row r="117" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5334,7 +5352,7 @@
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
     </row>
-    <row r="118" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5375,7 +5393,7 @@
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
     </row>
-    <row r="119" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5416,7 +5434,7 @@
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
     </row>
-    <row r="120" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5457,7 +5475,7 @@
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
     </row>
-    <row r="121" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5498,7 +5516,7 @@
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
     </row>
-    <row r="122" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5539,7 +5557,7 @@
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
     </row>
-    <row r="123" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5580,7 +5598,7 @@
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
     </row>
-    <row r="124" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A124" s="8"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5621,7 +5639,7 @@
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
     </row>
-    <row r="125" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5662,7 +5680,7 @@
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
     </row>
-    <row r="126" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A126" s="8"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5703,7 +5721,7 @@
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
     </row>
-    <row r="127" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5744,7 +5762,7 @@
       <c r="AL127" s="1"/>
       <c r="AM127" s="1"/>
     </row>
-    <row r="128" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A128" s="8"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5785,7 +5803,7 @@
       <c r="AL128" s="1"/>
       <c r="AM128" s="1"/>
     </row>
-    <row r="129" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5826,7 +5844,7 @@
       <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
     </row>
-    <row r="130" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5867,7 +5885,7 @@
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
     </row>
-    <row r="131" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5908,7 +5926,7 @@
       <c r="AL131" s="1"/>
       <c r="AM131" s="1"/>
     </row>
-    <row r="132" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5949,7 +5967,7 @@
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
     </row>
-    <row r="133" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5990,7 +6008,7 @@
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
     </row>
-    <row r="134" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A134" s="8"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -6031,7 +6049,7 @@
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
     </row>
-    <row r="135" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -6072,7 +6090,7 @@
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
     </row>
-    <row r="136" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A136" s="8"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -6113,7 +6131,7 @@
       <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
     </row>
-    <row r="137" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -6154,7 +6172,7 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
     </row>
-    <row r="138" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6195,7 +6213,7 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
     </row>
-    <row r="139" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6236,7 +6254,7 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
     </row>
-    <row r="140" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A140" s="8"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -6277,7 +6295,7 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
     </row>
-    <row r="141" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6318,7 +6336,7 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
     </row>
-    <row r="142" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A142" s="8"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -6359,7 +6377,7 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
     </row>
-    <row r="143" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6400,7 +6418,7 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
     </row>
-    <row r="144" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A144" s="8"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6441,7 +6459,7 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
     </row>
-    <row r="145" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6482,7 +6500,7 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
     </row>
-    <row r="146" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -6523,7 +6541,7 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
     </row>
-    <row r="147" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -6564,7 +6582,7 @@
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
     </row>
-    <row r="148" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6605,7 +6623,7 @@
       <c r="AL148" s="1"/>
       <c r="AM148" s="1"/>
     </row>
-    <row r="149" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -6646,7 +6664,7 @@
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
     </row>
-    <row r="150" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A150" s="8"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -6687,7 +6705,7 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
     </row>
-    <row r="151" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -6728,7 +6746,7 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
     </row>
-    <row r="152" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A152" s="8"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -6769,7 +6787,7 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
     </row>
-    <row r="153" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -6810,7 +6828,7 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
     </row>
-    <row r="154" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A154" s="8"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -6851,7 +6869,7 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
     </row>
-    <row r="155" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -6892,7 +6910,7 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
     </row>
-    <row r="156" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A156" s="8"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -6933,7 +6951,7 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
     </row>
-    <row r="157" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -6974,7 +6992,7 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
     </row>
-    <row r="158" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A158" s="8"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -7015,7 +7033,7 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
     </row>
-    <row r="159" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -7056,7 +7074,7 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
     </row>
-    <row r="160" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A160" s="8"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -7097,7 +7115,7 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
     </row>
-    <row r="161" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -7138,7 +7156,7 @@
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
     </row>
-    <row r="162" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A162" s="8"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -7179,7 +7197,7 @@
       <c r="AL162" s="1"/>
       <c r="AM162" s="1"/>
     </row>
-    <row r="163" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -7220,7 +7238,7 @@
       <c r="AL163" s="1"/>
       <c r="AM163" s="1"/>
     </row>
-    <row r="164" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A164" s="8"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -7261,7 +7279,7 @@
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
     </row>
-    <row r="165" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -7302,7 +7320,7 @@
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
     </row>
-    <row r="166" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -7343,7 +7361,7 @@
       <c r="AL166" s="1"/>
       <c r="AM166" s="1"/>
     </row>
-    <row r="167" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -7384,7 +7402,7 @@
       <c r="AL167" s="1"/>
       <c r="AM167" s="1"/>
     </row>
-    <row r="168" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A168" s="8"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -7425,7 +7443,7 @@
       <c r="AL168" s="1"/>
       <c r="AM168" s="1"/>
     </row>
-    <row r="169" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -7466,7 +7484,7 @@
       <c r="AL169" s="1"/>
       <c r="AM169" s="1"/>
     </row>
-    <row r="170" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A170" s="8"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -7507,7 +7525,7 @@
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
     </row>
-    <row r="171" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -7548,7 +7566,7 @@
       <c r="AL171" s="1"/>
       <c r="AM171" s="1"/>
     </row>
-    <row r="172" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -7589,7 +7607,7 @@
       <c r="AL172" s="1"/>
       <c r="AM172" s="1"/>
     </row>
-    <row r="173" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -7630,7 +7648,7 @@
       <c r="AL173" s="1"/>
       <c r="AM173" s="1"/>
     </row>
-    <row r="174" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A174" s="8"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -7671,7 +7689,7 @@
       <c r="AL174" s="1"/>
       <c r="AM174" s="1"/>
     </row>
-    <row r="175" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -7712,7 +7730,7 @@
       <c r="AL175" s="1"/>
       <c r="AM175" s="1"/>
     </row>
-    <row r="176" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A176" s="8"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -7753,7 +7771,7 @@
       <c r="AL176" s="1"/>
       <c r="AM176" s="1"/>
     </row>
-    <row r="177" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -7794,7 +7812,7 @@
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
     </row>
-    <row r="178" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -7835,7 +7853,7 @@
       <c r="AL178" s="1"/>
       <c r="AM178" s="1"/>
     </row>
-    <row r="179" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -7876,7 +7894,7 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
     </row>
-    <row r="180" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -7917,7 +7935,7 @@
       <c r="AL180" s="1"/>
       <c r="AM180" s="1"/>
     </row>
-    <row r="181" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -7958,7 +7976,7 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
     </row>
-    <row r="182" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A182" s="8"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -7999,7 +8017,7 @@
       <c r="AL182" s="1"/>
       <c r="AM182" s="1"/>
     </row>
-    <row r="183" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -8040,7 +8058,7 @@
       <c r="AL183" s="1"/>
       <c r="AM183" s="1"/>
     </row>
-    <row r="184" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A184" s="8"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -8081,7 +8099,7 @@
       <c r="AL184" s="1"/>
       <c r="AM184" s="1"/>
     </row>
-    <row r="185" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -8122,7 +8140,7 @@
       <c r="AL185" s="1"/>
       <c r="AM185" s="1"/>
     </row>
-    <row r="186" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A186" s="8"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -8163,7 +8181,7 @@
       <c r="AL186" s="1"/>
       <c r="AM186" s="1"/>
     </row>
-    <row r="187" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -8204,7 +8222,7 @@
       <c r="AL187" s="1"/>
       <c r="AM187" s="1"/>
     </row>
-    <row r="188" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -8245,7 +8263,7 @@
       <c r="AL188" s="1"/>
       <c r="AM188" s="1"/>
     </row>
-    <row r="189" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -8286,7 +8304,7 @@
       <c r="AL189" s="1"/>
       <c r="AM189" s="1"/>
     </row>
-    <row r="190" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -8327,7 +8345,7 @@
       <c r="AL190" s="1"/>
       <c r="AM190" s="1"/>
     </row>
-    <row r="191" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -8368,7 +8386,7 @@
       <c r="AL191" s="1"/>
       <c r="AM191" s="1"/>
     </row>
-    <row r="192" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -8409,7 +8427,7 @@
       <c r="AL192" s="1"/>
       <c r="AM192" s="1"/>
     </row>
-    <row r="193" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -8450,7 +8468,7 @@
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
     </row>
-    <row r="194" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -8491,7 +8509,7 @@
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
     </row>
-    <row r="195" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -8532,7 +8550,7 @@
       <c r="AL195" s="1"/>
       <c r="AM195" s="1"/>
     </row>
-    <row r="196" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -8573,7 +8591,7 @@
       <c r="AL196" s="1"/>
       <c r="AM196" s="1"/>
     </row>
-    <row r="197" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -8614,7 +8632,7 @@
       <c r="AL197" s="1"/>
       <c r="AM197" s="1"/>
     </row>
-    <row r="198" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A198" s="8"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -8655,7 +8673,7 @@
       <c r="AL198" s="1"/>
       <c r="AM198" s="1"/>
     </row>
-    <row r="199" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -8696,7 +8714,7 @@
       <c r="AL199" s="1"/>
       <c r="AM199" s="1"/>
     </row>
-    <row r="200" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A200" s="8"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -8737,7 +8755,7 @@
       <c r="AL200" s="1"/>
       <c r="AM200" s="1"/>
     </row>
-    <row r="201" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -8778,7 +8796,7 @@
       <c r="AL201" s="1"/>
       <c r="AM201" s="1"/>
     </row>
-    <row r="202" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A202" s="8"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -8819,7 +8837,7 @@
       <c r="AL202" s="1"/>
       <c r="AM202" s="1"/>
     </row>
-    <row r="203" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A203" s="8"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -8860,7 +8878,7 @@
       <c r="AL203" s="1"/>
       <c r="AM203" s="1"/>
     </row>
-    <row r="204" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A204" s="8"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -8901,7 +8919,7 @@
       <c r="AL204" s="1"/>
       <c r="AM204" s="1"/>
     </row>
-    <row r="205" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A205" s="8"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -8942,7 +8960,7 @@
       <c r="AL205" s="1"/>
       <c r="AM205" s="1"/>
     </row>
-    <row r="206" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A206" s="8"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -8983,7 +9001,7 @@
       <c r="AL206" s="1"/>
       <c r="AM206" s="1"/>
     </row>
-    <row r="207" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A207" s="8"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -9024,7 +9042,7 @@
       <c r="AL207" s="1"/>
       <c r="AM207" s="1"/>
     </row>
-    <row r="208" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A208" s="8"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -9065,7 +9083,7 @@
       <c r="AL208" s="1"/>
       <c r="AM208" s="1"/>
     </row>
-    <row r="209" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A209" s="8"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -9106,7 +9124,7 @@
       <c r="AL209" s="1"/>
       <c r="AM209" s="1"/>
     </row>
-    <row r="210" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A210" s="8"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -9147,7 +9165,7 @@
       <c r="AL210" s="1"/>
       <c r="AM210" s="1"/>
     </row>
-    <row r="211" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A211" s="8"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -9188,7 +9206,7 @@
       <c r="AL211" s="1"/>
       <c r="AM211" s="1"/>
     </row>
-    <row r="212" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A212" s="8"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -9229,7 +9247,7 @@
       <c r="AL212" s="1"/>
       <c r="AM212" s="1"/>
     </row>
-    <row r="213" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A213" s="8"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -9270,7 +9288,7 @@
       <c r="AL213" s="1"/>
       <c r="AM213" s="1"/>
     </row>
-    <row r="214" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A214" s="8"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -9311,7 +9329,7 @@
       <c r="AL214" s="1"/>
       <c r="AM214" s="1"/>
     </row>
-    <row r="215" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -9352,7 +9370,7 @@
       <c r="AL215" s="1"/>
       <c r="AM215" s="1"/>
     </row>
-    <row r="216" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A216" s="8"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -9393,7 +9411,7 @@
       <c r="AL216" s="1"/>
       <c r="AM216" s="1"/>
     </row>
-    <row r="217" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -9434,7 +9452,7 @@
       <c r="AL217" s="1"/>
       <c r="AM217" s="1"/>
     </row>
-    <row r="218" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A218" s="8"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -9475,7 +9493,7 @@
       <c r="AL218" s="1"/>
       <c r="AM218" s="1"/>
     </row>
-    <row r="219" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -9516,7 +9534,7 @@
       <c r="AL219" s="1"/>
       <c r="AM219" s="1"/>
     </row>
-    <row r="220" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A220" s="8"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -9557,7 +9575,7 @@
       <c r="AL220" s="1"/>
       <c r="AM220" s="1"/>
     </row>
-    <row r="221" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -9598,7 +9616,7 @@
       <c r="AL221" s="1"/>
       <c r="AM221" s="1"/>
     </row>
-    <row r="222" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -9639,7 +9657,7 @@
       <c r="AL222" s="1"/>
       <c r="AM222" s="1"/>
     </row>
-    <row r="223" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -9680,7 +9698,7 @@
       <c r="AL223" s="1"/>
       <c r="AM223" s="1"/>
     </row>
-    <row r="224" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A224" s="8"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -9721,7 +9739,7 @@
       <c r="AL224" s="1"/>
       <c r="AM224" s="1"/>
     </row>
-    <row r="225" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A225" s="8"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -9762,7 +9780,7 @@
       <c r="AL225" s="1"/>
       <c r="AM225" s="1"/>
     </row>
-    <row r="226" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A226" s="8"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -9803,7 +9821,7 @@
       <c r="AL226" s="1"/>
       <c r="AM226" s="1"/>
     </row>
-    <row r="227" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A227" s="8"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -9844,7 +9862,7 @@
       <c r="AL227" s="1"/>
       <c r="AM227" s="1"/>
     </row>
-    <row r="228" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A228" s="8"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -9885,7 +9903,7 @@
       <c r="AL228" s="1"/>
       <c r="AM228" s="1"/>
     </row>
-    <row r="229" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A229" s="8"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -9926,7 +9944,7 @@
       <c r="AL229" s="1"/>
       <c r="AM229" s="1"/>
     </row>
-    <row r="230" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A230" s="8"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -9967,7 +9985,7 @@
       <c r="AL230" s="1"/>
       <c r="AM230" s="1"/>
     </row>
-    <row r="231" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A231" s="8"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -10008,7 +10026,7 @@
       <c r="AL231" s="1"/>
       <c r="AM231" s="1"/>
     </row>
-    <row r="232" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A232" s="8"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -10049,7 +10067,7 @@
       <c r="AL232" s="1"/>
       <c r="AM232" s="1"/>
     </row>
-    <row r="233" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -10090,7 +10108,7 @@
       <c r="AL233" s="1"/>
       <c r="AM233" s="1"/>
     </row>
-    <row r="234" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A234" s="8"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -10131,7 +10149,7 @@
       <c r="AL234" s="1"/>
       <c r="AM234" s="1"/>
     </row>
-    <row r="235" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A235" s="8"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -10172,7 +10190,7 @@
       <c r="AL235" s="1"/>
       <c r="AM235" s="1"/>
     </row>
-    <row r="236" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A236" s="8"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -10213,7 +10231,7 @@
       <c r="AL236" s="1"/>
       <c r="AM236" s="1"/>
     </row>
-    <row r="237" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A237" s="8"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -10254,7 +10272,7 @@
       <c r="AL237" s="1"/>
       <c r="AM237" s="1"/>
     </row>
-    <row r="238" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A238" s="8"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -10295,7 +10313,7 @@
       <c r="AL238" s="1"/>
       <c r="AM238" s="1"/>
     </row>
-    <row r="239" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A239" s="8"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -10336,7 +10354,7 @@
       <c r="AL239" s="1"/>
       <c r="AM239" s="1"/>
     </row>
-    <row r="240" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A240" s="8"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -10377,7 +10395,7 @@
       <c r="AL240" s="1"/>
       <c r="AM240" s="1"/>
     </row>
-    <row r="241" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -10418,7 +10436,7 @@
       <c r="AL241" s="1"/>
       <c r="AM241" s="1"/>
     </row>
-    <row r="242" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A242" s="8"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -10459,7 +10477,7 @@
       <c r="AL242" s="1"/>
       <c r="AM242" s="1"/>
     </row>
-    <row r="243" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -10500,7 +10518,7 @@
       <c r="AL243" s="1"/>
       <c r="AM243" s="1"/>
     </row>
-    <row r="244" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A244" s="8"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -10541,7 +10559,7 @@
       <c r="AL244" s="1"/>
       <c r="AM244" s="1"/>
     </row>
-    <row r="245" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A245" s="8"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -10582,7 +10600,7 @@
       <c r="AL245" s="1"/>
       <c r="AM245" s="1"/>
     </row>
-    <row r="246" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A246" s="8"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -10623,7 +10641,7 @@
       <c r="AL246" s="1"/>
       <c r="AM246" s="1"/>
     </row>
-    <row r="247" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A247" s="8"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -10664,7 +10682,7 @@
       <c r="AL247" s="1"/>
       <c r="AM247" s="1"/>
     </row>
-    <row r="248" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A248" s="8"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -10705,7 +10723,7 @@
       <c r="AL248" s="1"/>
       <c r="AM248" s="1"/>
     </row>
-    <row r="249" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -10746,7 +10764,7 @@
       <c r="AL249" s="1"/>
       <c r="AM249" s="1"/>
     </row>
-    <row r="250" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A250" s="8"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -10787,7 +10805,7 @@
       <c r="AL250" s="1"/>
       <c r="AM250" s="1"/>
     </row>
-    <row r="251" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A251" s="8"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -10828,7 +10846,7 @@
       <c r="AL251" s="1"/>
       <c r="AM251" s="1"/>
     </row>
-    <row r="252" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -10869,7 +10887,7 @@
       <c r="AL252" s="1"/>
       <c r="AM252" s="1"/>
     </row>
-    <row r="253" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A253" s="8"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -10910,7 +10928,7 @@
       <c r="AL253" s="1"/>
       <c r="AM253" s="1"/>
     </row>
-    <row r="254" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -10951,7 +10969,7 @@
       <c r="AL254" s="1"/>
       <c r="AM254" s="1"/>
     </row>
-    <row r="255" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -10992,7 +11010,7 @@
       <c r="AL255" s="1"/>
       <c r="AM255" s="1"/>
     </row>
-    <row r="256" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -11033,7 +11051,7 @@
       <c r="AL256" s="1"/>
       <c r="AM256" s="1"/>
     </row>
-    <row r="257" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -11074,7 +11092,7 @@
       <c r="AL257" s="1"/>
       <c r="AM257" s="1"/>
     </row>
-    <row r="258" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A258" s="8"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -11115,7 +11133,7 @@
       <c r="AL258" s="1"/>
       <c r="AM258" s="1"/>
     </row>
-    <row r="259" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -11156,7 +11174,7 @@
       <c r="AL259" s="1"/>
       <c r="AM259" s="1"/>
     </row>
-    <row r="260" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A260" s="8"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -11197,7 +11215,7 @@
       <c r="AL260" s="1"/>
       <c r="AM260" s="1"/>
     </row>
-    <row r="261" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A261" s="8"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -11238,7 +11256,7 @@
       <c r="AL261" s="1"/>
       <c r="AM261" s="1"/>
     </row>
-    <row r="262" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A262" s="8"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -11279,7 +11297,7 @@
       <c r="AL262" s="1"/>
       <c r="AM262" s="1"/>
     </row>
-    <row r="263" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A263" s="8"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -11320,7 +11338,7 @@
       <c r="AL263" s="1"/>
       <c r="AM263" s="1"/>
     </row>
-    <row r="264" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A264" s="8"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -11361,7 +11379,7 @@
       <c r="AL264" s="1"/>
       <c r="AM264" s="1"/>
     </row>
-    <row r="265" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A265" s="8"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -11402,7 +11420,7 @@
       <c r="AL265" s="1"/>
       <c r="AM265" s="1"/>
     </row>
-    <row r="266" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A266" s="8"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -11443,7 +11461,7 @@
       <c r="AL266" s="1"/>
       <c r="AM266" s="1"/>
     </row>
-    <row r="267" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -11484,7 +11502,7 @@
       <c r="AL267" s="1"/>
       <c r="AM267" s="1"/>
     </row>
-    <row r="268" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -11525,7 +11543,7 @@
       <c r="AL268" s="1"/>
       <c r="AM268" s="1"/>
     </row>
-    <row r="269" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -11566,7 +11584,7 @@
       <c r="AL269" s="1"/>
       <c r="AM269" s="1"/>
     </row>
-    <row r="270" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -11607,7 +11625,7 @@
       <c r="AL270" s="1"/>
       <c r="AM270" s="1"/>
     </row>
-    <row r="271" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -11648,7 +11666,7 @@
       <c r="AL271" s="1"/>
       <c r="AM271" s="1"/>
     </row>
-    <row r="272" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -11689,7 +11707,7 @@
       <c r="AL272" s="1"/>
       <c r="AM272" s="1"/>
     </row>
-    <row r="273" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -11730,7 +11748,7 @@
       <c r="AL273" s="1"/>
       <c r="AM273" s="1"/>
     </row>
-    <row r="274" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -11771,7 +11789,7 @@
       <c r="AL274" s="1"/>
       <c r="AM274" s="1"/>
     </row>
-    <row r="275" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -11812,7 +11830,7 @@
       <c r="AL275" s="1"/>
       <c r="AM275" s="1"/>
     </row>
-    <row r="276" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -11853,7 +11871,7 @@
       <c r="AL276" s="1"/>
       <c r="AM276" s="1"/>
     </row>
-    <row r="277" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -11894,7 +11912,7 @@
       <c r="AL277" s="1"/>
       <c r="AM277" s="1"/>
     </row>
-    <row r="278" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -11935,7 +11953,7 @@
       <c r="AL278" s="1"/>
       <c r="AM278" s="1"/>
     </row>
-    <row r="279" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -11976,7 +11994,7 @@
       <c r="AL279" s="1"/>
       <c r="AM279" s="1"/>
     </row>
-    <row r="280" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -12017,7 +12035,7 @@
       <c r="AL280" s="1"/>
       <c r="AM280" s="1"/>
     </row>
-    <row r="281" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -12058,7 +12076,7 @@
       <c r="AL281" s="1"/>
       <c r="AM281" s="1"/>
     </row>
-    <row r="282" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -12099,7 +12117,7 @@
       <c r="AL282" s="1"/>
       <c r="AM282" s="1"/>
     </row>
-    <row r="283" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -12140,7 +12158,7 @@
       <c r="AL283" s="1"/>
       <c r="AM283" s="1"/>
     </row>
-    <row r="284" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -12181,7 +12199,7 @@
       <c r="AL284" s="1"/>
       <c r="AM284" s="1"/>
     </row>
-    <row r="285" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -12222,7 +12240,7 @@
       <c r="AL285" s="1"/>
       <c r="AM285" s="1"/>
     </row>
-    <row r="286" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -12263,7 +12281,7 @@
       <c r="AL286" s="1"/>
       <c r="AM286" s="1"/>
     </row>
-    <row r="287" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -12304,7 +12322,7 @@
       <c r="AL287" s="1"/>
       <c r="AM287" s="1"/>
     </row>
-    <row r="288" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -12345,7 +12363,7 @@
       <c r="AL288" s="1"/>
       <c r="AM288" s="1"/>
     </row>
-    <row r="289" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -12386,7 +12404,7 @@
       <c r="AL289" s="1"/>
       <c r="AM289" s="1"/>
     </row>
-    <row r="290" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -12427,7 +12445,7 @@
       <c r="AL290" s="1"/>
       <c r="AM290" s="1"/>
     </row>
-    <row r="291" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -12468,7 +12486,7 @@
       <c r="AL291" s="1"/>
       <c r="AM291" s="1"/>
     </row>
-    <row r="292" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -12509,7 +12527,7 @@
       <c r="AL292" s="1"/>
       <c r="AM292" s="1"/>
     </row>
-    <row r="293" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -12550,7 +12568,7 @@
       <c r="AL293" s="1"/>
       <c r="AM293" s="1"/>
     </row>
-    <row r="294" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -12591,7 +12609,7 @@
       <c r="AL294" s="1"/>
       <c r="AM294" s="1"/>
     </row>
-    <row r="295" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -12632,7 +12650,7 @@
       <c r="AL295" s="1"/>
       <c r="AM295" s="1"/>
     </row>
-    <row r="296" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -12673,7 +12691,7 @@
       <c r="AL296" s="1"/>
       <c r="AM296" s="1"/>
     </row>
-    <row r="297" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -12714,7 +12732,7 @@
       <c r="AL297" s="1"/>
       <c r="AM297" s="1"/>
     </row>
-    <row r="298" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -12755,7 +12773,7 @@
       <c r="AL298" s="1"/>
       <c r="AM298" s="1"/>
     </row>
-    <row r="299" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -12796,7 +12814,7 @@
       <c r="AL299" s="1"/>
       <c r="AM299" s="1"/>
     </row>
-    <row r="300" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -12837,7 +12855,7 @@
       <c r="AL300" s="1"/>
       <c r="AM300" s="1"/>
     </row>
-    <row r="301" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -12878,7 +12896,7 @@
       <c r="AL301" s="1"/>
       <c r="AM301" s="1"/>
     </row>
-    <row r="302" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -12919,7 +12937,7 @@
       <c r="AL302" s="1"/>
       <c r="AM302" s="1"/>
     </row>
-    <row r="303" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -12960,7 +12978,7 @@
       <c r="AL303" s="1"/>
       <c r="AM303" s="1"/>
     </row>
-    <row r="304" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -13001,7 +13019,7 @@
       <c r="AL304" s="1"/>
       <c r="AM304" s="1"/>
     </row>
-    <row r="305" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -13042,7 +13060,7 @@
       <c r="AL305" s="1"/>
       <c r="AM305" s="1"/>
     </row>
-    <row r="306" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -13083,7 +13101,7 @@
       <c r="AL306" s="1"/>
       <c r="AM306" s="1"/>
     </row>
-    <row r="307" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -13124,7 +13142,7 @@
       <c r="AL307" s="1"/>
       <c r="AM307" s="1"/>
     </row>
-    <row r="308" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -13165,7 +13183,7 @@
       <c r="AL308" s="1"/>
       <c r="AM308" s="1"/>
     </row>
-    <row r="309" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -13206,7 +13224,7 @@
       <c r="AL309" s="1"/>
       <c r="AM309" s="1"/>
     </row>
-    <row r="310" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -13247,7 +13265,7 @@
       <c r="AL310" s="1"/>
       <c r="AM310" s="1"/>
     </row>
-    <row r="311" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -13288,7 +13306,7 @@
       <c r="AL311" s="1"/>
       <c r="AM311" s="1"/>
     </row>
-    <row r="312" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -13329,7 +13347,7 @@
       <c r="AL312" s="1"/>
       <c r="AM312" s="1"/>
     </row>
-    <row r="313" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -13370,7 +13388,7 @@
       <c r="AL313" s="1"/>
       <c r="AM313" s="1"/>
     </row>
-    <row r="314" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -13411,7 +13429,7 @@
       <c r="AL314" s="1"/>
       <c r="AM314" s="1"/>
     </row>
-    <row r="315" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -13452,7 +13470,7 @@
       <c r="AL315" s="1"/>
       <c r="AM315" s="1"/>
     </row>
-    <row r="316" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -13493,7 +13511,7 @@
       <c r="AL316" s="1"/>
       <c r="AM316" s="1"/>
     </row>
-    <row r="317" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -13534,7 +13552,7 @@
       <c r="AL317" s="1"/>
       <c r="AM317" s="1"/>
     </row>
-    <row r="318" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -13575,7 +13593,7 @@
       <c r="AL318" s="1"/>
       <c r="AM318" s="1"/>
     </row>
-    <row r="319" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -13616,7 +13634,7 @@
       <c r="AL319" s="1"/>
       <c r="AM319" s="1"/>
     </row>
-    <row r="320" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -13657,7 +13675,7 @@
       <c r="AL320" s="1"/>
       <c r="AM320" s="1"/>
     </row>
-    <row r="321" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -13698,7 +13716,7 @@
       <c r="AL321" s="1"/>
       <c r="AM321" s="1"/>
     </row>
-    <row r="322" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -13739,7 +13757,7 @@
       <c r="AL322" s="1"/>
       <c r="AM322" s="1"/>
     </row>
-    <row r="323" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -13780,7 +13798,7 @@
       <c r="AL323" s="1"/>
       <c r="AM323" s="1"/>
     </row>
-    <row r="324" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -13821,7 +13839,7 @@
       <c r="AL324" s="1"/>
       <c r="AM324" s="1"/>
     </row>
-    <row r="325" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -13862,7 +13880,7 @@
       <c r="AL325" s="1"/>
       <c r="AM325" s="1"/>
     </row>
-    <row r="326" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -13903,7 +13921,7 @@
       <c r="AL326" s="1"/>
       <c r="AM326" s="1"/>
     </row>
-    <row r="327" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -13944,7 +13962,7 @@
       <c r="AL327" s="1"/>
       <c r="AM327" s="1"/>
     </row>
-    <row r="328" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -13985,7 +14003,7 @@
       <c r="AL328" s="1"/>
       <c r="AM328" s="1"/>
     </row>
-    <row r="329" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -14026,7 +14044,7 @@
       <c r="AL329" s="1"/>
       <c r="AM329" s="1"/>
     </row>
-    <row r="330" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -14067,7 +14085,7 @@
       <c r="AL330" s="1"/>
       <c r="AM330" s="1"/>
     </row>
-    <row r="331" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -14108,7 +14126,7 @@
       <c r="AL331" s="1"/>
       <c r="AM331" s="1"/>
     </row>
-    <row r="332" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -14149,7 +14167,7 @@
       <c r="AL332" s="1"/>
       <c r="AM332" s="1"/>
     </row>
-    <row r="333" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -14190,7 +14208,7 @@
       <c r="AL333" s="1"/>
       <c r="AM333" s="1"/>
     </row>
-    <row r="334" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -14231,7 +14249,7 @@
       <c r="AL334" s="1"/>
       <c r="AM334" s="1"/>
     </row>
-    <row r="335" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -14272,7 +14290,7 @@
       <c r="AL335" s="1"/>
       <c r="AM335" s="1"/>
     </row>
-    <row r="336" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -14313,7 +14331,7 @@
       <c r="AL336" s="1"/>
       <c r="AM336" s="1"/>
     </row>
-    <row r="337" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -14354,7 +14372,7 @@
       <c r="AL337" s="1"/>
       <c r="AM337" s="1"/>
     </row>
-    <row r="338" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -14395,7 +14413,7 @@
       <c r="AL338" s="1"/>
       <c r="AM338" s="1"/>
     </row>
-    <row r="339" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -14436,7 +14454,7 @@
       <c r="AL339" s="1"/>
       <c r="AM339" s="1"/>
     </row>
-    <row r="340" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -14477,7 +14495,7 @@
       <c r="AL340" s="1"/>
       <c r="AM340" s="1"/>
     </row>
-    <row r="341" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -14518,7 +14536,7 @@
       <c r="AL341" s="1"/>
       <c r="AM341" s="1"/>
     </row>
-    <row r="342" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -14559,7 +14577,7 @@
       <c r="AL342" s="1"/>
       <c r="AM342" s="1"/>
     </row>
-    <row r="343" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -14600,7 +14618,7 @@
       <c r="AL343" s="1"/>
       <c r="AM343" s="1"/>
     </row>
-    <row r="344" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -14641,7 +14659,7 @@
       <c r="AL344" s="1"/>
       <c r="AM344" s="1"/>
     </row>
-    <row r="345" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -14682,7 +14700,7 @@
       <c r="AL345" s="1"/>
       <c r="AM345" s="1"/>
     </row>
-    <row r="346" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -14723,7 +14741,7 @@
       <c r="AL346" s="1"/>
       <c r="AM346" s="1"/>
     </row>
-    <row r="347" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -14764,7 +14782,7 @@
       <c r="AL347" s="1"/>
       <c r="AM347" s="1"/>
     </row>
-    <row r="348" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -14805,7 +14823,7 @@
       <c r="AL348" s="1"/>
       <c r="AM348" s="1"/>
     </row>
-    <row r="349" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -14846,7 +14864,7 @@
       <c r="AL349" s="1"/>
       <c r="AM349" s="1"/>
     </row>
-    <row r="350" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -14887,7 +14905,7 @@
       <c r="AL350" s="1"/>
       <c r="AM350" s="1"/>
     </row>
-    <row r="351" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -14928,7 +14946,7 @@
       <c r="AL351" s="1"/>
       <c r="AM351" s="1"/>
     </row>
-    <row r="352" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -14969,7 +14987,7 @@
       <c r="AL352" s="1"/>
       <c r="AM352" s="1"/>
     </row>
-    <row r="353" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -15010,7 +15028,7 @@
       <c r="AL353" s="1"/>
       <c r="AM353" s="1"/>
     </row>
-    <row r="354" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -15051,7 +15069,7 @@
       <c r="AL354" s="1"/>
       <c r="AM354" s="1"/>
     </row>
-    <row r="355" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -15092,7 +15110,7 @@
       <c r="AL355" s="1"/>
       <c r="AM355" s="1"/>
     </row>
-    <row r="356" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -15133,7 +15151,7 @@
       <c r="AL356" s="1"/>
       <c r="AM356" s="1"/>
     </row>
-    <row r="357" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -15174,7 +15192,7 @@
       <c r="AL357" s="1"/>
       <c r="AM357" s="1"/>
     </row>
-    <row r="358" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -15215,7 +15233,7 @@
       <c r="AL358" s="1"/>
       <c r="AM358" s="1"/>
     </row>
-    <row r="359" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -15256,7 +15274,7 @@
       <c r="AL359" s="1"/>
       <c r="AM359" s="1"/>
     </row>
-    <row r="360" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -15297,7 +15315,7 @@
       <c r="AL360" s="1"/>
       <c r="AM360" s="1"/>
     </row>
-    <row r="361" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -15338,7 +15356,7 @@
       <c r="AL361" s="1"/>
       <c r="AM361" s="1"/>
     </row>
-    <row r="362" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -15379,7 +15397,7 @@
       <c r="AL362" s="1"/>
       <c r="AM362" s="1"/>
     </row>
-    <row r="363" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -15420,7 +15438,7 @@
       <c r="AL363" s="1"/>
       <c r="AM363" s="1"/>
     </row>
-    <row r="364" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -15461,7 +15479,7 @@
       <c r="AL364" s="1"/>
       <c r="AM364" s="1"/>
     </row>
-    <row r="365" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -15502,7 +15520,7 @@
       <c r="AL365" s="1"/>
       <c r="AM365" s="1"/>
     </row>
-    <row r="366" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -15543,7 +15561,7 @@
       <c r="AL366" s="1"/>
       <c r="AM366" s="1"/>
     </row>
-    <row r="367" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -15584,7 +15602,7 @@
       <c r="AL367" s="1"/>
       <c r="AM367" s="1"/>
     </row>
-    <row r="368" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -15625,7 +15643,7 @@
       <c r="AL368" s="1"/>
       <c r="AM368" s="1"/>
     </row>
-    <row r="369" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -15666,7 +15684,7 @@
       <c r="AL369" s="1"/>
       <c r="AM369" s="1"/>
     </row>
-    <row r="370" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -15707,7 +15725,7 @@
       <c r="AL370" s="1"/>
       <c r="AM370" s="1"/>
     </row>
-    <row r="371" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -15748,7 +15766,7 @@
       <c r="AL371" s="1"/>
       <c r="AM371" s="1"/>
     </row>
-    <row r="372" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -15789,7 +15807,7 @@
       <c r="AL372" s="1"/>
       <c r="AM372" s="1"/>
     </row>
-    <row r="373" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -15830,7 +15848,7 @@
       <c r="AL373" s="1"/>
       <c r="AM373" s="1"/>
     </row>
-    <row r="374" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -15871,7 +15889,7 @@
       <c r="AL374" s="1"/>
       <c r="AM374" s="1"/>
     </row>
-    <row r="375" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -15912,7 +15930,7 @@
       <c r="AL375" s="1"/>
       <c r="AM375" s="1"/>
     </row>
-    <row r="376" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -15953,7 +15971,7 @@
       <c r="AL376" s="1"/>
       <c r="AM376" s="1"/>
     </row>
-    <row r="377" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -15995,17 +16013,17 @@
       <c r="AM377" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="641">
+  <mergeCells count="640">
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:I19"/>
@@ -16270,7 +16288,6 @@
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="K9:Q9"/>
     <mergeCell ref="A259:I259"/>
     <mergeCell ref="A260:I260"/>
     <mergeCell ref="A261:I261"/>

--- a/06 practice-myself/研究笔记/0101 研究过程问题解决及经验反思.xlsx
+++ b/06 practice-myself/研究笔记/0101 研究过程问题解决及经验反思.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694FD21-5A16-424C-B88D-1D34272F89B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9362AE3-0B8C-49F9-B617-7750A6F364E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,12 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,6 +222,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -522,29 +522,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -569,17 +569,17 @@
       <c r="AM1" s="1"/>
     </row>
     <row r="2" spans="1:39" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="6"/>
       <c r="K2" s="8" t="s">
         <v>4</v>
@@ -704,25 +704,25 @@
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -882,25 +882,25 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -16014,65 +16014,563 @@
     </row>
   </sheetData>
   <mergeCells count="640">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="K374:Q374"/>
+    <mergeCell ref="K375:Q375"/>
+    <mergeCell ref="K376:Q376"/>
+    <mergeCell ref="K368:Q368"/>
+    <mergeCell ref="K369:Q369"/>
+    <mergeCell ref="K370:Q370"/>
+    <mergeCell ref="K371:Q371"/>
+    <mergeCell ref="K372:Q372"/>
+    <mergeCell ref="K373:Q373"/>
+    <mergeCell ref="K362:Q362"/>
+    <mergeCell ref="K363:Q363"/>
+    <mergeCell ref="K364:Q364"/>
+    <mergeCell ref="K365:Q365"/>
+    <mergeCell ref="K366:Q366"/>
+    <mergeCell ref="K367:Q367"/>
+    <mergeCell ref="K356:Q356"/>
+    <mergeCell ref="K357:Q357"/>
+    <mergeCell ref="K358:Q358"/>
+    <mergeCell ref="K359:Q359"/>
+    <mergeCell ref="K360:Q360"/>
+    <mergeCell ref="K361:Q361"/>
+    <mergeCell ref="K350:Q350"/>
+    <mergeCell ref="K351:Q351"/>
+    <mergeCell ref="K352:Q352"/>
+    <mergeCell ref="K353:Q353"/>
+    <mergeCell ref="K354:Q354"/>
+    <mergeCell ref="K355:Q355"/>
+    <mergeCell ref="K344:Q344"/>
+    <mergeCell ref="K345:Q345"/>
+    <mergeCell ref="K346:Q346"/>
+    <mergeCell ref="K347:Q347"/>
+    <mergeCell ref="K348:Q348"/>
+    <mergeCell ref="K349:Q349"/>
+    <mergeCell ref="K338:Q338"/>
+    <mergeCell ref="K339:Q339"/>
+    <mergeCell ref="K340:Q340"/>
+    <mergeCell ref="K341:Q341"/>
+    <mergeCell ref="K342:Q342"/>
+    <mergeCell ref="K343:Q343"/>
+    <mergeCell ref="K332:Q332"/>
+    <mergeCell ref="K333:Q333"/>
+    <mergeCell ref="K334:Q334"/>
+    <mergeCell ref="K335:Q335"/>
+    <mergeCell ref="K336:Q336"/>
+    <mergeCell ref="K337:Q337"/>
+    <mergeCell ref="K326:Q326"/>
+    <mergeCell ref="K327:Q327"/>
+    <mergeCell ref="K328:Q328"/>
+    <mergeCell ref="K329:Q329"/>
+    <mergeCell ref="K330:Q330"/>
+    <mergeCell ref="K331:Q331"/>
+    <mergeCell ref="K320:Q320"/>
+    <mergeCell ref="K321:Q321"/>
+    <mergeCell ref="K322:Q322"/>
+    <mergeCell ref="K323:Q323"/>
+    <mergeCell ref="K324:Q324"/>
+    <mergeCell ref="K325:Q325"/>
+    <mergeCell ref="K314:Q314"/>
+    <mergeCell ref="K315:Q315"/>
+    <mergeCell ref="K316:Q316"/>
+    <mergeCell ref="K317:Q317"/>
+    <mergeCell ref="K318:Q318"/>
+    <mergeCell ref="K319:Q319"/>
+    <mergeCell ref="K308:Q308"/>
+    <mergeCell ref="K309:Q309"/>
+    <mergeCell ref="K310:Q310"/>
+    <mergeCell ref="K311:Q311"/>
+    <mergeCell ref="K312:Q312"/>
+    <mergeCell ref="K313:Q313"/>
+    <mergeCell ref="K302:Q302"/>
+    <mergeCell ref="K303:Q303"/>
+    <mergeCell ref="K304:Q304"/>
+    <mergeCell ref="K305:Q305"/>
+    <mergeCell ref="K306:Q306"/>
+    <mergeCell ref="K307:Q307"/>
+    <mergeCell ref="K296:Q296"/>
+    <mergeCell ref="K297:Q297"/>
+    <mergeCell ref="K298:Q298"/>
+    <mergeCell ref="K299:Q299"/>
+    <mergeCell ref="K300:Q300"/>
+    <mergeCell ref="K301:Q301"/>
+    <mergeCell ref="K290:Q290"/>
+    <mergeCell ref="K291:Q291"/>
+    <mergeCell ref="K292:Q292"/>
+    <mergeCell ref="K293:Q293"/>
+    <mergeCell ref="K294:Q294"/>
+    <mergeCell ref="K295:Q295"/>
+    <mergeCell ref="K284:Q284"/>
+    <mergeCell ref="K285:Q285"/>
+    <mergeCell ref="K286:Q286"/>
+    <mergeCell ref="K287:Q287"/>
+    <mergeCell ref="K288:Q288"/>
+    <mergeCell ref="K289:Q289"/>
+    <mergeCell ref="K278:Q278"/>
+    <mergeCell ref="K279:Q279"/>
+    <mergeCell ref="K280:Q280"/>
+    <mergeCell ref="K281:Q281"/>
+    <mergeCell ref="K282:Q282"/>
+    <mergeCell ref="K283:Q283"/>
+    <mergeCell ref="K272:Q272"/>
+    <mergeCell ref="K273:Q273"/>
+    <mergeCell ref="K274:Q274"/>
+    <mergeCell ref="K275:Q275"/>
+    <mergeCell ref="K276:Q276"/>
+    <mergeCell ref="K277:Q277"/>
+    <mergeCell ref="K266:Q266"/>
+    <mergeCell ref="K267:Q267"/>
+    <mergeCell ref="K268:Q268"/>
+    <mergeCell ref="K269:Q269"/>
+    <mergeCell ref="K270:Q270"/>
+    <mergeCell ref="K271:Q271"/>
+    <mergeCell ref="K260:Q260"/>
+    <mergeCell ref="K261:Q261"/>
+    <mergeCell ref="K262:Q262"/>
+    <mergeCell ref="K263:Q263"/>
+    <mergeCell ref="K264:Q264"/>
+    <mergeCell ref="K265:Q265"/>
+    <mergeCell ref="K254:Q254"/>
+    <mergeCell ref="K255:Q255"/>
+    <mergeCell ref="K256:Q256"/>
+    <mergeCell ref="K257:Q257"/>
+    <mergeCell ref="K258:Q258"/>
+    <mergeCell ref="K259:Q259"/>
+    <mergeCell ref="K248:Q248"/>
+    <mergeCell ref="K249:Q249"/>
+    <mergeCell ref="K250:Q250"/>
+    <mergeCell ref="K251:Q251"/>
+    <mergeCell ref="K252:Q252"/>
+    <mergeCell ref="K253:Q253"/>
+    <mergeCell ref="K242:Q242"/>
+    <mergeCell ref="K243:Q243"/>
+    <mergeCell ref="K244:Q244"/>
+    <mergeCell ref="K245:Q245"/>
+    <mergeCell ref="K246:Q246"/>
+    <mergeCell ref="K247:Q247"/>
+    <mergeCell ref="K236:Q236"/>
+    <mergeCell ref="K237:Q237"/>
+    <mergeCell ref="K238:Q238"/>
+    <mergeCell ref="K239:Q239"/>
+    <mergeCell ref="K240:Q240"/>
+    <mergeCell ref="K241:Q241"/>
+    <mergeCell ref="K230:Q230"/>
+    <mergeCell ref="K231:Q231"/>
+    <mergeCell ref="K232:Q232"/>
+    <mergeCell ref="K233:Q233"/>
+    <mergeCell ref="K234:Q234"/>
+    <mergeCell ref="K235:Q235"/>
+    <mergeCell ref="K224:Q224"/>
+    <mergeCell ref="K225:Q225"/>
+    <mergeCell ref="K226:Q226"/>
+    <mergeCell ref="K227:Q227"/>
+    <mergeCell ref="K228:Q228"/>
+    <mergeCell ref="K229:Q229"/>
+    <mergeCell ref="K218:Q218"/>
+    <mergeCell ref="K219:Q219"/>
+    <mergeCell ref="K220:Q220"/>
+    <mergeCell ref="K221:Q221"/>
+    <mergeCell ref="K222:Q222"/>
+    <mergeCell ref="K223:Q223"/>
+    <mergeCell ref="K212:Q212"/>
+    <mergeCell ref="K213:Q213"/>
+    <mergeCell ref="K214:Q214"/>
+    <mergeCell ref="K215:Q215"/>
+    <mergeCell ref="K216:Q216"/>
+    <mergeCell ref="K217:Q217"/>
+    <mergeCell ref="K206:Q206"/>
+    <mergeCell ref="K207:Q207"/>
+    <mergeCell ref="K208:Q208"/>
+    <mergeCell ref="K209:Q209"/>
+    <mergeCell ref="K210:Q210"/>
+    <mergeCell ref="K211:Q211"/>
+    <mergeCell ref="K200:Q200"/>
+    <mergeCell ref="K201:Q201"/>
+    <mergeCell ref="K202:Q202"/>
+    <mergeCell ref="K203:Q203"/>
+    <mergeCell ref="K204:Q204"/>
+    <mergeCell ref="K205:Q205"/>
+    <mergeCell ref="K194:Q194"/>
+    <mergeCell ref="K195:Q195"/>
+    <mergeCell ref="K196:Q196"/>
+    <mergeCell ref="K197:Q197"/>
+    <mergeCell ref="K198:Q198"/>
+    <mergeCell ref="K199:Q199"/>
+    <mergeCell ref="K188:Q188"/>
+    <mergeCell ref="K189:Q189"/>
+    <mergeCell ref="K190:Q190"/>
+    <mergeCell ref="K191:Q191"/>
+    <mergeCell ref="K192:Q192"/>
+    <mergeCell ref="K193:Q193"/>
+    <mergeCell ref="K182:Q182"/>
+    <mergeCell ref="K183:Q183"/>
+    <mergeCell ref="K184:Q184"/>
+    <mergeCell ref="K185:Q185"/>
+    <mergeCell ref="K186:Q186"/>
+    <mergeCell ref="K187:Q187"/>
+    <mergeCell ref="K176:Q176"/>
+    <mergeCell ref="K177:Q177"/>
+    <mergeCell ref="K178:Q178"/>
+    <mergeCell ref="K179:Q179"/>
+    <mergeCell ref="K180:Q180"/>
+    <mergeCell ref="K181:Q181"/>
+    <mergeCell ref="K170:Q170"/>
+    <mergeCell ref="K171:Q171"/>
+    <mergeCell ref="K172:Q172"/>
+    <mergeCell ref="K173:Q173"/>
+    <mergeCell ref="K174:Q174"/>
+    <mergeCell ref="K175:Q175"/>
+    <mergeCell ref="K164:Q164"/>
+    <mergeCell ref="K165:Q165"/>
+    <mergeCell ref="K166:Q166"/>
+    <mergeCell ref="K167:Q167"/>
+    <mergeCell ref="K168:Q168"/>
+    <mergeCell ref="K169:Q169"/>
+    <mergeCell ref="K158:Q158"/>
+    <mergeCell ref="K159:Q159"/>
+    <mergeCell ref="K160:Q160"/>
+    <mergeCell ref="K161:Q161"/>
+    <mergeCell ref="K162:Q162"/>
+    <mergeCell ref="K163:Q163"/>
+    <mergeCell ref="K152:Q152"/>
+    <mergeCell ref="K153:Q153"/>
+    <mergeCell ref="K154:Q154"/>
+    <mergeCell ref="K155:Q155"/>
+    <mergeCell ref="K156:Q156"/>
+    <mergeCell ref="K157:Q157"/>
+    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="K149:Q149"/>
+    <mergeCell ref="K150:Q150"/>
+    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A265:I265"/>
+    <mergeCell ref="A266:I266"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A259:I259"/>
+    <mergeCell ref="A260:I260"/>
+    <mergeCell ref="A261:I261"/>
+    <mergeCell ref="A262:I262"/>
+    <mergeCell ref="A263:I263"/>
+    <mergeCell ref="A264:I264"/>
+    <mergeCell ref="A253:I253"/>
+    <mergeCell ref="A254:I254"/>
+    <mergeCell ref="A255:I255"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A256:I256"/>
+    <mergeCell ref="A257:I257"/>
+    <mergeCell ref="A258:I258"/>
+    <mergeCell ref="A247:I247"/>
+    <mergeCell ref="A248:I248"/>
+    <mergeCell ref="A249:I249"/>
+    <mergeCell ref="A250:I250"/>
+    <mergeCell ref="A251:I251"/>
+    <mergeCell ref="A252:I252"/>
+    <mergeCell ref="A241:I241"/>
+    <mergeCell ref="A242:I242"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="A244:I244"/>
+    <mergeCell ref="A245:I245"/>
+    <mergeCell ref="A246:I246"/>
+    <mergeCell ref="A235:I235"/>
+    <mergeCell ref="A236:I236"/>
+    <mergeCell ref="A237:I237"/>
+    <mergeCell ref="A238:I238"/>
+    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="A240:I240"/>
+    <mergeCell ref="A229:I229"/>
+    <mergeCell ref="A230:I230"/>
+    <mergeCell ref="A231:I231"/>
+    <mergeCell ref="A232:I232"/>
+    <mergeCell ref="A233:I233"/>
+    <mergeCell ref="A234:I234"/>
+    <mergeCell ref="A223:I223"/>
+    <mergeCell ref="A224:I224"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A226:I226"/>
+    <mergeCell ref="A227:I227"/>
+    <mergeCell ref="A228:I228"/>
+    <mergeCell ref="A217:I217"/>
+    <mergeCell ref="A218:I218"/>
+    <mergeCell ref="A219:I219"/>
+    <mergeCell ref="A220:I220"/>
+    <mergeCell ref="A221:I221"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="A211:I211"/>
+    <mergeCell ref="A212:I212"/>
+    <mergeCell ref="A213:I213"/>
+    <mergeCell ref="A214:I214"/>
+    <mergeCell ref="A215:I215"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A205:I205"/>
+    <mergeCell ref="A206:I206"/>
+    <mergeCell ref="A207:I207"/>
+    <mergeCell ref="A208:I208"/>
+    <mergeCell ref="A209:I209"/>
+    <mergeCell ref="A210:I210"/>
+    <mergeCell ref="A199:I199"/>
+    <mergeCell ref="A200:I200"/>
+    <mergeCell ref="A201:I201"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A203:I203"/>
+    <mergeCell ref="A204:I204"/>
+    <mergeCell ref="A193:I193"/>
+    <mergeCell ref="A194:I194"/>
+    <mergeCell ref="A195:I195"/>
+    <mergeCell ref="A196:I196"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A198:I198"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A188:I188"/>
+    <mergeCell ref="A189:I189"/>
+    <mergeCell ref="A190:I190"/>
+    <mergeCell ref="A191:I191"/>
+    <mergeCell ref="A192:I192"/>
+    <mergeCell ref="A181:I181"/>
+    <mergeCell ref="A182:I182"/>
+    <mergeCell ref="A183:I183"/>
+    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="A185:I185"/>
+    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A176:I176"/>
+    <mergeCell ref="A177:I177"/>
+    <mergeCell ref="A178:I178"/>
+    <mergeCell ref="A179:I179"/>
+    <mergeCell ref="A180:I180"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A170:I170"/>
+    <mergeCell ref="A171:I171"/>
+    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="A173:I173"/>
+    <mergeCell ref="A174:I174"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A164:I164"/>
+    <mergeCell ref="A165:I165"/>
+    <mergeCell ref="A166:I166"/>
+    <mergeCell ref="A167:I167"/>
+    <mergeCell ref="A168:I168"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="A158:I158"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="A162:I162"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="A154:I154"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A156:I156"/>
+    <mergeCell ref="A145:I145"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="A148:I148"/>
+    <mergeCell ref="A149:I149"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="A142:I142"/>
+    <mergeCell ref="A143:I143"/>
+    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A135:I135"/>
+    <mergeCell ref="A136:I136"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="A84:I84"/>
     <mergeCell ref="A73:I73"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="A75:I75"/>
@@ -16097,563 +16595,65 @@
     <mergeCell ref="A61:I61"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A88:I88"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A79:I79"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A101:I101"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="A91:I91"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="A96:I96"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="A104:I104"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A125:I125"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A136:I136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A127:I127"/>
-    <mergeCell ref="A128:I128"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A145:I145"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="A147:I147"/>
-    <mergeCell ref="A148:I148"/>
-    <mergeCell ref="A149:I149"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:I141"/>
-    <mergeCell ref="A142:I142"/>
-    <mergeCell ref="A143:I143"/>
-    <mergeCell ref="A144:I144"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="A158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="A160:I160"/>
-    <mergeCell ref="A161:I161"/>
-    <mergeCell ref="A162:I162"/>
-    <mergeCell ref="A151:I151"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A153:I153"/>
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A169:I169"/>
-    <mergeCell ref="A170:I170"/>
-    <mergeCell ref="A171:I171"/>
-    <mergeCell ref="A172:I172"/>
-    <mergeCell ref="A173:I173"/>
-    <mergeCell ref="A174:I174"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A164:I164"/>
-    <mergeCell ref="A165:I165"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A167:I167"/>
-    <mergeCell ref="A168:I168"/>
-    <mergeCell ref="A181:I181"/>
-    <mergeCell ref="A182:I182"/>
-    <mergeCell ref="A183:I183"/>
-    <mergeCell ref="A184:I184"/>
-    <mergeCell ref="A185:I185"/>
-    <mergeCell ref="A186:I186"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A176:I176"/>
-    <mergeCell ref="A177:I177"/>
-    <mergeCell ref="A178:I178"/>
-    <mergeCell ref="A179:I179"/>
-    <mergeCell ref="A180:I180"/>
-    <mergeCell ref="A193:I193"/>
-    <mergeCell ref="A194:I194"/>
-    <mergeCell ref="A195:I195"/>
-    <mergeCell ref="A196:I196"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A198:I198"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A188:I188"/>
-    <mergeCell ref="A189:I189"/>
-    <mergeCell ref="A190:I190"/>
-    <mergeCell ref="A191:I191"/>
-    <mergeCell ref="A192:I192"/>
-    <mergeCell ref="A205:I205"/>
-    <mergeCell ref="A206:I206"/>
-    <mergeCell ref="A207:I207"/>
-    <mergeCell ref="A208:I208"/>
-    <mergeCell ref="A209:I209"/>
-    <mergeCell ref="A210:I210"/>
-    <mergeCell ref="A199:I199"/>
-    <mergeCell ref="A200:I200"/>
-    <mergeCell ref="A201:I201"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A203:I203"/>
-    <mergeCell ref="A204:I204"/>
-    <mergeCell ref="A217:I217"/>
-    <mergeCell ref="A218:I218"/>
-    <mergeCell ref="A219:I219"/>
-    <mergeCell ref="A220:I220"/>
-    <mergeCell ref="A221:I221"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="A211:I211"/>
-    <mergeCell ref="A212:I212"/>
-    <mergeCell ref="A213:I213"/>
-    <mergeCell ref="A214:I214"/>
-    <mergeCell ref="A215:I215"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A229:I229"/>
-    <mergeCell ref="A230:I230"/>
-    <mergeCell ref="A231:I231"/>
-    <mergeCell ref="A232:I232"/>
-    <mergeCell ref="A233:I233"/>
-    <mergeCell ref="A234:I234"/>
-    <mergeCell ref="A223:I223"/>
-    <mergeCell ref="A224:I224"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A226:I226"/>
-    <mergeCell ref="A227:I227"/>
-    <mergeCell ref="A228:I228"/>
-    <mergeCell ref="A241:I241"/>
-    <mergeCell ref="A242:I242"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="A244:I244"/>
-    <mergeCell ref="A245:I245"/>
-    <mergeCell ref="A246:I246"/>
-    <mergeCell ref="A235:I235"/>
-    <mergeCell ref="A236:I236"/>
-    <mergeCell ref="A237:I237"/>
-    <mergeCell ref="A238:I238"/>
-    <mergeCell ref="A239:I239"/>
-    <mergeCell ref="A240:I240"/>
-    <mergeCell ref="A256:I256"/>
-    <mergeCell ref="A257:I257"/>
-    <mergeCell ref="A258:I258"/>
-    <mergeCell ref="A247:I247"/>
-    <mergeCell ref="A248:I248"/>
-    <mergeCell ref="A249:I249"/>
-    <mergeCell ref="A250:I250"/>
-    <mergeCell ref="A251:I251"/>
-    <mergeCell ref="A252:I252"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A265:I265"/>
-    <mergeCell ref="A266:I266"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A259:I259"/>
-    <mergeCell ref="A260:I260"/>
-    <mergeCell ref="A261:I261"/>
-    <mergeCell ref="A262:I262"/>
-    <mergeCell ref="A263:I263"/>
-    <mergeCell ref="A264:I264"/>
-    <mergeCell ref="A253:I253"/>
-    <mergeCell ref="A254:I254"/>
-    <mergeCell ref="A255:I255"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="K59:Q59"/>
-    <mergeCell ref="K60:Q60"/>
-    <mergeCell ref="K61:Q61"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="K77:Q77"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="K86:Q86"/>
-    <mergeCell ref="K87:Q87"/>
-    <mergeCell ref="K88:Q88"/>
-    <mergeCell ref="K89:Q89"/>
-    <mergeCell ref="K90:Q90"/>
-    <mergeCell ref="K91:Q91"/>
-    <mergeCell ref="K80:Q80"/>
-    <mergeCell ref="K81:Q81"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="K98:Q98"/>
-    <mergeCell ref="K99:Q99"/>
-    <mergeCell ref="K100:Q100"/>
-    <mergeCell ref="K101:Q101"/>
-    <mergeCell ref="K102:Q102"/>
-    <mergeCell ref="K103:Q103"/>
-    <mergeCell ref="K92:Q92"/>
-    <mergeCell ref="K93:Q93"/>
-    <mergeCell ref="K94:Q94"/>
-    <mergeCell ref="K95:Q95"/>
-    <mergeCell ref="K96:Q96"/>
-    <mergeCell ref="K97:Q97"/>
-    <mergeCell ref="K110:Q110"/>
-    <mergeCell ref="K111:Q111"/>
-    <mergeCell ref="K112:Q112"/>
-    <mergeCell ref="K113:Q113"/>
-    <mergeCell ref="K114:Q114"/>
-    <mergeCell ref="K115:Q115"/>
-    <mergeCell ref="K104:Q104"/>
-    <mergeCell ref="K105:Q105"/>
-    <mergeCell ref="K106:Q106"/>
-    <mergeCell ref="K107:Q107"/>
-    <mergeCell ref="K108:Q108"/>
-    <mergeCell ref="K109:Q109"/>
-    <mergeCell ref="K122:Q122"/>
-    <mergeCell ref="K123:Q123"/>
-    <mergeCell ref="K124:Q124"/>
-    <mergeCell ref="K125:Q125"/>
-    <mergeCell ref="K126:Q126"/>
-    <mergeCell ref="K127:Q127"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="K117:Q117"/>
-    <mergeCell ref="K118:Q118"/>
-    <mergeCell ref="K119:Q119"/>
-    <mergeCell ref="K120:Q120"/>
-    <mergeCell ref="K121:Q121"/>
-    <mergeCell ref="K134:Q134"/>
-    <mergeCell ref="K135:Q135"/>
-    <mergeCell ref="K136:Q136"/>
-    <mergeCell ref="K137:Q137"/>
-    <mergeCell ref="K138:Q138"/>
-    <mergeCell ref="K139:Q139"/>
-    <mergeCell ref="K128:Q128"/>
-    <mergeCell ref="K129:Q129"/>
-    <mergeCell ref="K130:Q130"/>
-    <mergeCell ref="K131:Q131"/>
-    <mergeCell ref="K132:Q132"/>
-    <mergeCell ref="K133:Q133"/>
-    <mergeCell ref="K146:Q146"/>
-    <mergeCell ref="K147:Q147"/>
-    <mergeCell ref="K148:Q148"/>
-    <mergeCell ref="K149:Q149"/>
-    <mergeCell ref="K150:Q150"/>
-    <mergeCell ref="K151:Q151"/>
-    <mergeCell ref="K140:Q140"/>
-    <mergeCell ref="K141:Q141"/>
-    <mergeCell ref="K142:Q142"/>
-    <mergeCell ref="K143:Q143"/>
-    <mergeCell ref="K144:Q144"/>
-    <mergeCell ref="K145:Q145"/>
-    <mergeCell ref="K158:Q158"/>
-    <mergeCell ref="K159:Q159"/>
-    <mergeCell ref="K160:Q160"/>
-    <mergeCell ref="K161:Q161"/>
-    <mergeCell ref="K162:Q162"/>
-    <mergeCell ref="K163:Q163"/>
-    <mergeCell ref="K152:Q152"/>
-    <mergeCell ref="K153:Q153"/>
-    <mergeCell ref="K154:Q154"/>
-    <mergeCell ref="K155:Q155"/>
-    <mergeCell ref="K156:Q156"/>
-    <mergeCell ref="K157:Q157"/>
-    <mergeCell ref="K170:Q170"/>
-    <mergeCell ref="K171:Q171"/>
-    <mergeCell ref="K172:Q172"/>
-    <mergeCell ref="K173:Q173"/>
-    <mergeCell ref="K174:Q174"/>
-    <mergeCell ref="K175:Q175"/>
-    <mergeCell ref="K164:Q164"/>
-    <mergeCell ref="K165:Q165"/>
-    <mergeCell ref="K166:Q166"/>
-    <mergeCell ref="K167:Q167"/>
-    <mergeCell ref="K168:Q168"/>
-    <mergeCell ref="K169:Q169"/>
-    <mergeCell ref="K182:Q182"/>
-    <mergeCell ref="K183:Q183"/>
-    <mergeCell ref="K184:Q184"/>
-    <mergeCell ref="K185:Q185"/>
-    <mergeCell ref="K186:Q186"/>
-    <mergeCell ref="K187:Q187"/>
-    <mergeCell ref="K176:Q176"/>
-    <mergeCell ref="K177:Q177"/>
-    <mergeCell ref="K178:Q178"/>
-    <mergeCell ref="K179:Q179"/>
-    <mergeCell ref="K180:Q180"/>
-    <mergeCell ref="K181:Q181"/>
-    <mergeCell ref="K194:Q194"/>
-    <mergeCell ref="K195:Q195"/>
-    <mergeCell ref="K196:Q196"/>
-    <mergeCell ref="K197:Q197"/>
-    <mergeCell ref="K198:Q198"/>
-    <mergeCell ref="K199:Q199"/>
-    <mergeCell ref="K188:Q188"/>
-    <mergeCell ref="K189:Q189"/>
-    <mergeCell ref="K190:Q190"/>
-    <mergeCell ref="K191:Q191"/>
-    <mergeCell ref="K192:Q192"/>
-    <mergeCell ref="K193:Q193"/>
-    <mergeCell ref="K206:Q206"/>
-    <mergeCell ref="K207:Q207"/>
-    <mergeCell ref="K208:Q208"/>
-    <mergeCell ref="K209:Q209"/>
-    <mergeCell ref="K210:Q210"/>
-    <mergeCell ref="K211:Q211"/>
-    <mergeCell ref="K200:Q200"/>
-    <mergeCell ref="K201:Q201"/>
-    <mergeCell ref="K202:Q202"/>
-    <mergeCell ref="K203:Q203"/>
-    <mergeCell ref="K204:Q204"/>
-    <mergeCell ref="K205:Q205"/>
-    <mergeCell ref="K218:Q218"/>
-    <mergeCell ref="K219:Q219"/>
-    <mergeCell ref="K220:Q220"/>
-    <mergeCell ref="K221:Q221"/>
-    <mergeCell ref="K222:Q222"/>
-    <mergeCell ref="K223:Q223"/>
-    <mergeCell ref="K212:Q212"/>
-    <mergeCell ref="K213:Q213"/>
-    <mergeCell ref="K214:Q214"/>
-    <mergeCell ref="K215:Q215"/>
-    <mergeCell ref="K216:Q216"/>
-    <mergeCell ref="K217:Q217"/>
-    <mergeCell ref="K230:Q230"/>
-    <mergeCell ref="K231:Q231"/>
-    <mergeCell ref="K232:Q232"/>
-    <mergeCell ref="K233:Q233"/>
-    <mergeCell ref="K234:Q234"/>
-    <mergeCell ref="K235:Q235"/>
-    <mergeCell ref="K224:Q224"/>
-    <mergeCell ref="K225:Q225"/>
-    <mergeCell ref="K226:Q226"/>
-    <mergeCell ref="K227:Q227"/>
-    <mergeCell ref="K228:Q228"/>
-    <mergeCell ref="K229:Q229"/>
-    <mergeCell ref="K242:Q242"/>
-    <mergeCell ref="K243:Q243"/>
-    <mergeCell ref="K244:Q244"/>
-    <mergeCell ref="K245:Q245"/>
-    <mergeCell ref="K246:Q246"/>
-    <mergeCell ref="K247:Q247"/>
-    <mergeCell ref="K236:Q236"/>
-    <mergeCell ref="K237:Q237"/>
-    <mergeCell ref="K238:Q238"/>
-    <mergeCell ref="K239:Q239"/>
-    <mergeCell ref="K240:Q240"/>
-    <mergeCell ref="K241:Q241"/>
-    <mergeCell ref="K254:Q254"/>
-    <mergeCell ref="K255:Q255"/>
-    <mergeCell ref="K256:Q256"/>
-    <mergeCell ref="K257:Q257"/>
-    <mergeCell ref="K258:Q258"/>
-    <mergeCell ref="K259:Q259"/>
-    <mergeCell ref="K248:Q248"/>
-    <mergeCell ref="K249:Q249"/>
-    <mergeCell ref="K250:Q250"/>
-    <mergeCell ref="K251:Q251"/>
-    <mergeCell ref="K252:Q252"/>
-    <mergeCell ref="K253:Q253"/>
-    <mergeCell ref="K266:Q266"/>
-    <mergeCell ref="K267:Q267"/>
-    <mergeCell ref="K268:Q268"/>
-    <mergeCell ref="K269:Q269"/>
-    <mergeCell ref="K270:Q270"/>
-    <mergeCell ref="K271:Q271"/>
-    <mergeCell ref="K260:Q260"/>
-    <mergeCell ref="K261:Q261"/>
-    <mergeCell ref="K262:Q262"/>
-    <mergeCell ref="K263:Q263"/>
-    <mergeCell ref="K264:Q264"/>
-    <mergeCell ref="K265:Q265"/>
-    <mergeCell ref="K278:Q278"/>
-    <mergeCell ref="K279:Q279"/>
-    <mergeCell ref="K280:Q280"/>
-    <mergeCell ref="K281:Q281"/>
-    <mergeCell ref="K282:Q282"/>
-    <mergeCell ref="K283:Q283"/>
-    <mergeCell ref="K272:Q272"/>
-    <mergeCell ref="K273:Q273"/>
-    <mergeCell ref="K274:Q274"/>
-    <mergeCell ref="K275:Q275"/>
-    <mergeCell ref="K276:Q276"/>
-    <mergeCell ref="K277:Q277"/>
-    <mergeCell ref="K290:Q290"/>
-    <mergeCell ref="K291:Q291"/>
-    <mergeCell ref="K292:Q292"/>
-    <mergeCell ref="K293:Q293"/>
-    <mergeCell ref="K294:Q294"/>
-    <mergeCell ref="K295:Q295"/>
-    <mergeCell ref="K284:Q284"/>
-    <mergeCell ref="K285:Q285"/>
-    <mergeCell ref="K286:Q286"/>
-    <mergeCell ref="K287:Q287"/>
-    <mergeCell ref="K288:Q288"/>
-    <mergeCell ref="K289:Q289"/>
-    <mergeCell ref="K302:Q302"/>
-    <mergeCell ref="K303:Q303"/>
-    <mergeCell ref="K304:Q304"/>
-    <mergeCell ref="K305:Q305"/>
-    <mergeCell ref="K306:Q306"/>
-    <mergeCell ref="K307:Q307"/>
-    <mergeCell ref="K296:Q296"/>
-    <mergeCell ref="K297:Q297"/>
-    <mergeCell ref="K298:Q298"/>
-    <mergeCell ref="K299:Q299"/>
-    <mergeCell ref="K300:Q300"/>
-    <mergeCell ref="K301:Q301"/>
-    <mergeCell ref="K314:Q314"/>
-    <mergeCell ref="K315:Q315"/>
-    <mergeCell ref="K316:Q316"/>
-    <mergeCell ref="K317:Q317"/>
-    <mergeCell ref="K318:Q318"/>
-    <mergeCell ref="K319:Q319"/>
-    <mergeCell ref="K308:Q308"/>
-    <mergeCell ref="K309:Q309"/>
-    <mergeCell ref="K310:Q310"/>
-    <mergeCell ref="K311:Q311"/>
-    <mergeCell ref="K312:Q312"/>
-    <mergeCell ref="K313:Q313"/>
-    <mergeCell ref="K326:Q326"/>
-    <mergeCell ref="K327:Q327"/>
-    <mergeCell ref="K328:Q328"/>
-    <mergeCell ref="K329:Q329"/>
-    <mergeCell ref="K330:Q330"/>
-    <mergeCell ref="K331:Q331"/>
-    <mergeCell ref="K320:Q320"/>
-    <mergeCell ref="K321:Q321"/>
-    <mergeCell ref="K322:Q322"/>
-    <mergeCell ref="K323:Q323"/>
-    <mergeCell ref="K324:Q324"/>
-    <mergeCell ref="K325:Q325"/>
-    <mergeCell ref="K338:Q338"/>
-    <mergeCell ref="K339:Q339"/>
-    <mergeCell ref="K340:Q340"/>
-    <mergeCell ref="K341:Q341"/>
-    <mergeCell ref="K342:Q342"/>
-    <mergeCell ref="K343:Q343"/>
-    <mergeCell ref="K332:Q332"/>
-    <mergeCell ref="K333:Q333"/>
-    <mergeCell ref="K334:Q334"/>
-    <mergeCell ref="K335:Q335"/>
-    <mergeCell ref="K336:Q336"/>
-    <mergeCell ref="K337:Q337"/>
-    <mergeCell ref="K350:Q350"/>
-    <mergeCell ref="K351:Q351"/>
-    <mergeCell ref="K352:Q352"/>
-    <mergeCell ref="K353:Q353"/>
-    <mergeCell ref="K354:Q354"/>
-    <mergeCell ref="K355:Q355"/>
-    <mergeCell ref="K344:Q344"/>
-    <mergeCell ref="K345:Q345"/>
-    <mergeCell ref="K346:Q346"/>
-    <mergeCell ref="K347:Q347"/>
-    <mergeCell ref="K348:Q348"/>
-    <mergeCell ref="K349:Q349"/>
-    <mergeCell ref="K362:Q362"/>
-    <mergeCell ref="K363:Q363"/>
-    <mergeCell ref="K364:Q364"/>
-    <mergeCell ref="K365:Q365"/>
-    <mergeCell ref="K366:Q366"/>
-    <mergeCell ref="K367:Q367"/>
-    <mergeCell ref="K356:Q356"/>
-    <mergeCell ref="K357:Q357"/>
-    <mergeCell ref="K358:Q358"/>
-    <mergeCell ref="K359:Q359"/>
-    <mergeCell ref="K360:Q360"/>
-    <mergeCell ref="K361:Q361"/>
-    <mergeCell ref="K374:Q374"/>
-    <mergeCell ref="K375:Q375"/>
-    <mergeCell ref="K376:Q376"/>
-    <mergeCell ref="K368:Q368"/>
-    <mergeCell ref="K369:Q369"/>
-    <mergeCell ref="K370:Q370"/>
-    <mergeCell ref="K371:Q371"/>
-    <mergeCell ref="K372:Q372"/>
-    <mergeCell ref="K373:Q373"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
